--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Yearly Results of Expleo Solutions(in Rs. Cr.)</t>
   </si>
@@ -140,6 +140,66 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>17.54</t>
+  </si>
+  <si>
+    <t>34.45</t>
+  </si>
+  <si>
+    <t>52.66</t>
+  </si>
+  <si>
+    <t>69.77</t>
+  </si>
+  <si>
+    <t>88.96</t>
+  </si>
+  <si>
+    <t>74.56</t>
+  </si>
+  <si>
+    <t>61.31</t>
+  </si>
+  <si>
+    <t>111.90</t>
+  </si>
+  <si>
+    <t>157.83</t>
+  </si>
+  <si>
+    <t>194.44</t>
+  </si>
+  <si>
+    <t>214.15</t>
+  </si>
+  <si>
+    <t>264.20</t>
+  </si>
+  <si>
+    <t>259.90</t>
+  </si>
+  <si>
+    <t>276.44</t>
+  </si>
+  <si>
+    <t>282.77</t>
+  </si>
+  <si>
+    <t>269.40</t>
+  </si>
+  <si>
+    <t>300.89</t>
+  </si>
+  <si>
+    <t>404.51</t>
+  </si>
+  <si>
+    <t>903.30</t>
+  </si>
+  <si>
+    <t>964.87</t>
   </si>
 </sst>
 </file>
@@ -575,8 +635,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>17.54</v>
+      <c r="B2" t="s">
+        <v>42</v>
       </c>
       <c r="C2">
         <v>17.54</v>
@@ -627,24 +687,24 @@
         <v>105</v>
       </c>
       <c r="S2">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="T2">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
       <c r="U2">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="V2">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>34.45</v>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
       <c r="C3">
         <v>34.45</v>
@@ -695,24 +755,24 @@
         <v>105</v>
       </c>
       <c r="S3">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="T3">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
       <c r="U3">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="V3">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>52.66</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4">
         <v>52.66</v>
@@ -763,24 +823,24 @@
         <v>105</v>
       </c>
       <c r="S4">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="T4">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
       <c r="U4">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="V4">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>69.77</v>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
       <c r="C5">
         <v>69.77</v>
@@ -831,24 +891,24 @@
         <v>20</v>
       </c>
       <c r="S5">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="T5">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
       <c r="U5">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="V5">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>88.95999999999999</v>
+      <c r="B6" t="s">
+        <v>46</v>
       </c>
       <c r="C6">
         <v>88.95999999999999</v>
@@ -899,24 +959,24 @@
         <v>10</v>
       </c>
       <c r="S6">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="T6">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
       <c r="U6">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="V6">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>74.56</v>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
       <c r="C7">
         <v>74.56</v>
@@ -967,24 +1027,24 @@
         <v>10</v>
       </c>
       <c r="S7">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="T7">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
       <c r="U7">
-        <v>30.98857142857143</v>
+        <v>30.99</v>
       </c>
       <c r="V7">
-        <v>30.95285714285714</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>61.31</v>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8">
         <v>61.31</v>
@@ -1008,7 +1068,7 @@
         <v>2.61</v>
       </c>
       <c r="J8">
-        <v>0.7536842105263157</v>
+        <v>0.75</v>
       </c>
       <c r="K8">
         <v>2.61</v>
@@ -1051,8 +1111,8 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>111.9</v>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9">
         <v>111.9</v>
@@ -1119,8 +1179,8 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>157.83</v>
+      <c r="B10" t="s">
+        <v>50</v>
       </c>
       <c r="C10">
         <v>157.83</v>
@@ -1187,8 +1247,8 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>194.44</v>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
       <c r="C11">
         <v>194.44</v>
@@ -1255,8 +1315,8 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>214.15</v>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
       <c r="C12">
         <v>214.15</v>
@@ -1323,8 +1383,8 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>264.2</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13">
         <v>264.2</v>
@@ -1391,8 +1451,8 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>259.9</v>
+      <c r="B14" t="s">
+        <v>54</v>
       </c>
       <c r="C14">
         <v>259.9</v>
@@ -1459,8 +1519,8 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>276.44</v>
+      <c r="B15" t="s">
+        <v>55</v>
       </c>
       <c r="C15">
         <v>276.44</v>
@@ -1527,8 +1587,8 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>282.77</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16">
         <v>282.77</v>
@@ -1595,8 +1655,8 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
-        <v>269.4</v>
+      <c r="B17" t="s">
+        <v>57</v>
       </c>
       <c r="C17">
         <v>269.4</v>
@@ -1663,8 +1723,8 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>300.89</v>
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
       <c r="C18">
         <v>300.89</v>
@@ -1731,8 +1791,8 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
-        <v>404.51</v>
+      <c r="B19" t="s">
+        <v>59</v>
       </c>
       <c r="C19">
         <v>404.51</v>
@@ -1799,8 +1859,8 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>903.3</v>
+      <c r="B20" t="s">
+        <v>60</v>
       </c>
       <c r="C20">
         <v>903.3</v>
@@ -1867,8 +1927,8 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>964.87</v>
+      <c r="B21" t="s">
+        <v>61</v>
       </c>
       <c r="C21">
         <v>964.87</v>
